--- a/Тестики.xlsx
+++ b/Тестики.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JPTV20\ValiantGames\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmitrii\Desktop\uchebka\ValiantGames\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Жмякнул я значит на "Discover popular", а оно сука не работает</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>Какой-то оффсет показывает нуль</t>
-  </si>
-  <si>
-    <t>Удаление бандла не работает</t>
   </si>
   <si>
     <t>Покупка игры не осуществляется</t>
@@ -81,7 +78,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -97,9 +94,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -137,7 +134,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -209,7 +206,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -362,42 +359,37 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
